--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createImagePackage.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/createImagePackage.xlsx
@@ -1,25 +1,715 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10740" windowHeight="7905"/>
+  </bookViews>
   <sheets>
     <sheet name="cn" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>create_image</t>
+  </si>
+  <si>
+    <t>Create image</t>
+  </si>
+  <si>
+    <t>tips_one</t>
+  </si>
+  <si>
+    <t>If the data disk currently attached to the virtual machine is selected to be made as image, snapshot will be automatically created for the data disk;</t>
+  </si>
+  <si>
+    <t>tips_two</t>
+  </si>
+  <si>
+    <t>To ensure the image is available, such snapshot cannot be deleted before deletion of the image. The time of creating snapshot is longer, and image can only be used after all the snapshots are created.</t>
+  </si>
+  <si>
+    <t>operation_guide</t>
+  </si>
+  <si>
+    <t>Operation Guide</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>name_tips</t>
+  </si>
+  <si>
+    <t>'Name cannot be blank and only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”, and cannot exceed 32 characters'</t>
+  </si>
+  <si>
+    <t>paramCheck_name</t>
+  </si>
+  <si>
+    <t>'Name'</t>
+  </si>
+  <si>
+    <t>paramCheck_description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description_tips</t>
+  </si>
+  <si>
+    <t>'Description cannot exceed 256 characters'</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>'Description'</t>
+  </si>
+  <si>
+    <t>releated_disk</t>
+  </si>
+  <si>
+    <t>Associated Disk</t>
+  </si>
+  <si>
+    <t>system_disk</t>
+  </si>
+  <si>
+    <t>System Disk</t>
+  </si>
+  <si>
+    <t>local_disk</t>
+  </si>
+  <si>
+    <t>'Local Disk'</t>
+  </si>
+  <si>
+    <t>Local_disk</t>
+  </si>
+  <si>
+    <t>Local Disk</t>
+  </si>
+  <si>
+    <t>release_with_vm</t>
+  </si>
+  <si>
+    <t>Release on VM termination</t>
+  </si>
+  <si>
+    <t>data_disk</t>
+  </si>
+  <si>
+    <t>Data Disk</t>
+  </si>
+  <si>
+    <t>dataDisk_name_range</t>
+  </si>
+  <si>
+    <t>Range of the data disk device name</t>
+  </si>
+  <si>
+    <t>see_detailRule</t>
+  </si>
+  <si>
+    <t>Click here for detailed rules</t>
+  </si>
+  <si>
+    <t>cancle</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>snapshot_is_full</t>
+  </si>
+  <si>
+    <t>'The quota of cloud disk snapshot creation is full, and creation can't be executed'</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>error_tips</t>
+  </si>
+  <si>
+    <t>'Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
+  </si>
+  <si>
+    <t>efficient_disk</t>
+  </si>
+  <si>
+    <t>'Premium Hdd Cloud Disk'</t>
+  </si>
+  <si>
+    <t>ssd_disk</t>
+  </si>
+  <si>
+    <t>'SSD Cloud Disk'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>创建镜像</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>若选择云主机当前挂载数据盘制做镜像，将会自动为数据盘创建快照；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>为保证镜像可用，该类快照在镜像删除之前不可删除。快照制作时间较长，所有快照制作完成后镜像才可以使用。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>操作指南</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>地域</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>关联磁盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>系统盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>本地盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>随云主机释放</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据盘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>数据盘设备名范围</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>具体规则点此详见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称不可为空，只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“-”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>，且不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述不能超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>个字符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>描述</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>本地盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>消</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>制作云硬盘快照限额已满，无法创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>确</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>定</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>名称只支持中文、数字、大小写字母及英文下划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>“_”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>及中划线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>高效云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'SSD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,14 +732,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,215 +1073,301 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="222.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>create_image</v>
-      </c>
-      <c r="B1" t="str">
-        <v>创建镜像</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>tips_one</v>
-      </c>
-      <c r="B2" t="str">
-        <v>若选择云主机当前挂载数据盘制做镜像，将会自动为数据盘创建快照；</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>tips_two</v>
-      </c>
-      <c r="B3" t="str">
-        <v>为保证镜像可用，该类快照在镜像删除之前不可删除。快照制作时间较长，所有快照制作完成后镜像才可以使用。</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>operation_guide</v>
-      </c>
-      <c r="B4" t="str">
-        <v>操作指南</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>region</v>
-      </c>
-      <c r="B5" t="str">
-        <v>地域</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>name</v>
-      </c>
-      <c r="B6" t="str">
-        <v>名称</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>name_tips</v>
-      </c>
-      <c r="B7" t="str">
-        <v>'名称不可为空，只支持中文、数字、大小写字母及英文下划线“_”及中划线“-”，且不能超过32字符'</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>paramCheck_name</v>
-      </c>
-      <c r="B8" t="str">
-        <v>'名称'</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>paramCheck_description</v>
-      </c>
-      <c r="B9" t="str">
-        <v>描述</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>description_tips</v>
-      </c>
-      <c r="B10" t="str">
-        <v>'描述不能超过256个字符'</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>description</v>
-      </c>
-      <c r="B11" t="str">
-        <v>'描述'</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>releated_disk</v>
-      </c>
-      <c r="B12" t="str">
-        <v>关联磁盘</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>system_disk</v>
-      </c>
-      <c r="B13" t="str">
-        <v>系统盘</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>local_disk</v>
-      </c>
-      <c r="B14" t="str">
-        <v>'本地盘'</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>Local_disk</v>
-      </c>
-      <c r="B15" t="str">
-        <v>本地盘</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>release_with_vm</v>
-      </c>
-      <c r="B16" t="str">
-        <v>随云主机释放</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>data_disk</v>
-      </c>
-      <c r="B17" t="str">
-        <v>数据盘</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>dataDisk_name_range</v>
-      </c>
-      <c r="B18" t="str">
-        <v>数据盘设备名范围</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>see_detailRule</v>
-      </c>
-      <c r="B19" t="str">
-        <v>具体规则点此详见</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>cancle</v>
-      </c>
-      <c r="B20" t="str">
-        <v>取 消</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>snapshot_is_full</v>
-      </c>
-      <c r="B21" t="str">
-        <v>'制作云硬盘快照限额已满，无法创建'</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>confirm</v>
-      </c>
-      <c r="B22" t="str">
-        <v>确 定</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>error_tips</v>
-      </c>
-      <c r="B23" t="str">
-        <v>'名称只支持中文、数字、大小写字母及英文下划线“_”及中划线'</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>efficient_disk</v>
-      </c>
-      <c r="B24" t="str">
-        <v>'高效云盘'</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>ssd_disk</v>
-      </c>
-      <c r="B25" t="str">
-        <v>'SSD云盘'</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B25"/>
+    <ignoredError sqref="C1:C25 A1:A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>